--- a/Table/Table_xls/技能相关表/j技能表-复合/技能总表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能表-复合/技能总表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\技能相关表\j技能表-复合\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D62E400-9F00-4D66-AD66-CCB6D73FCC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,19 +18,27 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$299</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -2623,14 +2637,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2694,140 +2702,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2896,7 +2793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,158 +2803,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3173,218 +2920,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3393,55 +2976,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3462,151 +3000,151 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3620,46 +3158,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="44" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="17" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="15" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="15" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="48" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="18" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3695,13 +3233,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="74" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="32" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3716,19 +3254,19 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="44" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="17" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="44" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="17" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3738,17 +3276,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3766,16 +3304,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -3811,13 +3349,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3829,10 +3367,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -3841,32 +3379,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="39" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3878,11 +3416,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3892,19 +3430,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -3916,7 +3454,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3928,13 +3466,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3943,25 +3481,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -3970,7 +3508,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -3985,10 +3523,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -3997,64 +3535,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="43" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="16" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="15" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="48" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="48" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="18" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4066,148 +3604,110 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="75">
+    <cellStyle name="20% - 着色 6" xfId="15" builtinId="50"/>
+    <cellStyle name="40% - 着色 1" xfId="18" builtinId="31"/>
+    <cellStyle name="差" xfId="5" builtinId="27"/>
+    <cellStyle name="差 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="差 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="差 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="差 2 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="差 2 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="差 2 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="差 2 7" xfId="6" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="差 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="差 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="差 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="差 6" xfId="11" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="差 7" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="差 8" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="差 2 4" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="差 2 6" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="百分比" xfId="14" builtinId="5"/>
-    <cellStyle name="差 2 7" xfId="15"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="差 4" xfId="17"/>
-    <cellStyle name="注释" xfId="18" builtinId="10"/>
-    <cellStyle name="常规 6 13" xfId="19"/>
-    <cellStyle name="常规 6" xfId="20"/>
-    <cellStyle name="警告文本" xfId="21" builtinId="11"/>
-    <cellStyle name="常规 6 5" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="23" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="标题" xfId="25" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="27" builtinId="16"/>
-    <cellStyle name="差 6" xfId="28"/>
-    <cellStyle name="标题 2" xfId="29" builtinId="17"/>
-    <cellStyle name="差 7" xfId="30"/>
-    <cellStyle name="标题 3" xfId="31" builtinId="18"/>
-    <cellStyle name="差 8" xfId="32"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="33" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="34" builtinId="44"/>
-    <cellStyle name="输出" xfId="35" builtinId="21"/>
-    <cellStyle name="计算" xfId="36" builtinId="22"/>
-    <cellStyle name="常规 26" xfId="37"/>
-    <cellStyle name="检查单元格" xfId="38" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="40" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="41" builtinId="24"/>
-    <cellStyle name="汇总" xfId="42" builtinId="25"/>
-    <cellStyle name="好" xfId="43" builtinId="26"/>
-    <cellStyle name="适中" xfId="44" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="45" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="46" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="47" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="53" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="55" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="常规 10" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="差 2" xfId="62"/>
-    <cellStyle name="差 2 2" xfId="63"/>
-    <cellStyle name="差 2 3" xfId="64"/>
-    <cellStyle name="差 2 5" xfId="65"/>
-    <cellStyle name="差 3" xfId="66"/>
-    <cellStyle name="差 5" xfId="67"/>
-    <cellStyle name="常规 14" xfId="68"/>
-    <cellStyle name="常规 20" xfId="69"/>
-    <cellStyle name="常规 15" xfId="70"/>
-    <cellStyle name="常规 21" xfId="71"/>
-    <cellStyle name="常规 16" xfId="72"/>
-    <cellStyle name="常规 23" xfId="73"/>
-    <cellStyle name="常规 18" xfId="74"/>
-    <cellStyle name="常规 24" xfId="75"/>
-    <cellStyle name="常规 19" xfId="76"/>
-    <cellStyle name="常规 2 2" xfId="77"/>
-    <cellStyle name="常规 2 3" xfId="78"/>
-    <cellStyle name="常规 2 4" xfId="79"/>
-    <cellStyle name="常规 2 5" xfId="80"/>
-    <cellStyle name="常规 2 6" xfId="81"/>
-    <cellStyle name="常规 2 7" xfId="82"/>
-    <cellStyle name="常规 2 8" xfId="83"/>
-    <cellStyle name="常规 22" xfId="84"/>
-    <cellStyle name="常规 25" xfId="85"/>
-    <cellStyle name="常规 6 10" xfId="86"/>
-    <cellStyle name="常规 3" xfId="87"/>
-    <cellStyle name="常规 3 2" xfId="88"/>
-    <cellStyle name="常规 3 3" xfId="89"/>
-    <cellStyle name="常规 3 4" xfId="90"/>
-    <cellStyle name="常规 3 5" xfId="91"/>
-    <cellStyle name="常规 3 6" xfId="92"/>
-    <cellStyle name="常规 3 7" xfId="93"/>
-    <cellStyle name="常规 6 11" xfId="94"/>
-    <cellStyle name="常规 4" xfId="95"/>
-    <cellStyle name="常规 6 12" xfId="96"/>
-    <cellStyle name="常规 6 2" xfId="97"/>
-    <cellStyle name="常规 6 3" xfId="98"/>
-    <cellStyle name="常规 6 4" xfId="99"/>
-    <cellStyle name="常规 6 6" xfId="100"/>
-    <cellStyle name="常规 6 7" xfId="101"/>
-    <cellStyle name="常规 6 8" xfId="102"/>
-    <cellStyle name="常规 6 9" xfId="103"/>
-    <cellStyle name="常规 7" xfId="104"/>
-    <cellStyle name="常规 7 10" xfId="105"/>
-    <cellStyle name="常规 7 11" xfId="106"/>
-    <cellStyle name="常规 7 12" xfId="107"/>
-    <cellStyle name="常规 7 13" xfId="108"/>
-    <cellStyle name="常规 7 2" xfId="109"/>
-    <cellStyle name="常规 7 4" xfId="110"/>
-    <cellStyle name="常规 7 5" xfId="111"/>
-    <cellStyle name="常规 7 6" xfId="112"/>
-    <cellStyle name="常规 7 7" xfId="113"/>
-    <cellStyle name="常规 7 8" xfId="114"/>
-    <cellStyle name="常规 7 9" xfId="115"/>
-    <cellStyle name="常规 8" xfId="116"/>
+    <cellStyle name="常规 10" xfId="19" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="常规 14" xfId="26" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 15" xfId="28" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 16" xfId="30" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="常规 18" xfId="32" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="常规 19" xfId="34" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="常规 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="常规 2 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 2 4" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 5" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="常规 2 6" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="常规 2 7" xfId="40" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="常规 2 8" xfId="41" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="常规 20" xfId="27" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 21" xfId="29" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="常规 22" xfId="42" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="常规 23" xfId="31" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="常规 24" xfId="33" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="常规 25" xfId="43" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 26" xfId="14" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 3 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 3 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 3 5" xfId="49" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 3 6" xfId="50" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 3 7" xfId="51" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 4" xfId="53" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 6" xfId="9" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 6 10" xfId="44" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 6 11" xfId="52" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 6 12" xfId="54" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 6 13" xfId="8" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 6 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 6 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 6 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 6 5" xfId="10" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 6 6" xfId="58" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 6 7" xfId="59" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 6 8" xfId="60" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6 9" xfId="61" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 7" xfId="62" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 7 10" xfId="63" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 7 11" xfId="64" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="常规 7 12" xfId="65" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 7 13" xfId="66" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 7 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="常规 7 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 7 4" xfId="68" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="常规 7 5" xfId="69" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="常规 7 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="常规 7 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="常规 7 8" xfId="72" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="常规 7 9" xfId="73" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="常规 8" xfId="74" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="好" xfId="16" builtinId="26"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4536,45 +4036,44 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.62727272727273" style="17" customWidth="1"/>
-    <col min="2" max="2" width="26.3727272727273" style="17" customWidth="1"/>
-    <col min="3" max="3" width="38.3727272727273" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.1272727272727" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="17" customWidth="1"/>
     <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="7" width="15.7545454545455" style="17" customWidth="1"/>
-    <col min="8" max="10" width="15.7545454545455" style="18" customWidth="1"/>
-    <col min="11" max="11" width="14.3727272727273" style="17" customWidth="1"/>
+    <col min="6" max="7" width="15.75" style="17" customWidth="1"/>
+    <col min="8" max="10" width="15.75" style="18" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="17" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="17" customWidth="1"/>
     <col min="13" max="13" width="9" style="17"/>
-    <col min="14" max="14" width="16.5363636363636" style="17" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="17" customWidth="1"/>
     <col min="15" max="15" width="9" style="19"/>
     <col min="16" max="16" width="31" style="17" customWidth="1"/>
     <col min="17" max="19" width="9" style="17"/>
-    <col min="20" max="20" width="88.6272727272727" style="20" customWidth="1"/>
-    <col min="21" max="21" width="23.8727272727273" style="21" customWidth="1"/>
-    <col min="22" max="22" width="10.2545454545455" style="17" customWidth="1"/>
+    <col min="20" max="20" width="88.625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="23.875" style="21" customWidth="1"/>
+    <col min="22" max="22" width="10.25" style="17" customWidth="1"/>
     <col min="23" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="66" customHeight="1" spans="1:28">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -4660,7 +4159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:25">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>100001</v>
       </c>
@@ -4717,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>100002</v>
       </c>
@@ -4774,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>100003</v>
       </c>
@@ -4828,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>100004</v>
       </c>
@@ -4882,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>100005</v>
       </c>
@@ -4940,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>100009</v>
       </c>
@@ -4994,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>100010</v>
       </c>
@@ -5048,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="28">
         <v>100011</v>
       </c>
@@ -5102,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>100012</v>
       </c>
@@ -5156,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="28">
         <v>100013</v>
       </c>
@@ -5210,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>100014</v>
       </c>
@@ -5264,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="28">
         <v>100015</v>
       </c>
@@ -5318,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>100016</v>
       </c>
@@ -5372,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>100017</v>
       </c>
@@ -5426,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="28">
         <v>100020</v>
       </c>
@@ -5480,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>100021</v>
       </c>
@@ -5534,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="28">
         <v>100022</v>
       </c>
@@ -5588,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>100023</v>
       </c>
@@ -5642,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="28">
         <v>100024</v>
       </c>
@@ -5696,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21" s="28">
         <v>100025</v>
       </c>
@@ -5750,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:24">
+    <row r="22" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="35">
         <v>100026</v>
       </c>
@@ -5806,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>100030</v>
       </c>
@@ -5860,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="28">
         <v>100031</v>
       </c>
@@ -5914,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>100032</v>
       </c>
@@ -5968,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="28">
         <v>100033</v>
       </c>
@@ -6022,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>100034</v>
       </c>
@@ -6076,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="28">
         <v>100035</v>
       </c>
@@ -6130,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>100036</v>
       </c>
@@ -6184,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30" s="28">
         <v>100037</v>
       </c>
@@ -6238,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" s="28">
         <v>100040</v>
       </c>
@@ -6292,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>100041</v>
       </c>
@@ -6346,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="28">
         <v>100042</v>
       </c>
@@ -6400,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="26">
         <v>100050</v>
       </c>
@@ -6454,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="28">
         <v>100051</v>
       </c>
@@ -6508,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="26">
         <v>100052</v>
       </c>
@@ -6562,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="28">
         <v>100053</v>
       </c>
@@ -6616,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="26">
         <v>100054</v>
       </c>
@@ -6670,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="28">
         <v>100055</v>
       </c>
@@ -6724,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="26">
         <v>100056</v>
       </c>
@@ -6778,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="28">
         <v>100057</v>
       </c>
@@ -6832,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="28">
         <v>100090</v>
       </c>
@@ -6886,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" s="26">
         <v>100091</v>
       </c>
@@ -6940,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="26">
         <v>100100</v>
       </c>
@@ -6994,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="28">
         <v>100101</v>
       </c>
@@ -7048,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:24">
+    <row r="46" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="38">
         <v>110000</v>
       </c>
@@ -7104,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="1" spans="1:25">
+    <row r="47" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="38">
         <v>110001</v>
       </c>
@@ -7168,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="4" customFormat="1" spans="1:24">
+    <row r="48" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="38">
         <v>110002</v>
       </c>
@@ -7224,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1" spans="1:25">
+    <row r="49" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="38">
         <v>110003</v>
       </c>
@@ -7286,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="4" customFormat="1" spans="1:24">
+    <row r="50" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="38">
         <v>110004</v>
       </c>
@@ -7342,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="1" spans="1:25">
+    <row r="51" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="38">
         <v>110005</v>
       </c>
@@ -7401,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1" spans="1:24">
+    <row r="52" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="38">
         <v>110006</v>
       </c>
@@ -7454,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" spans="1:25">
+    <row r="53" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="38">
         <v>110007</v>
       </c>
@@ -7514,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1" spans="1:24">
+    <row r="54" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="38">
         <v>110008</v>
       </c>
@@ -7567,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1" spans="1:24">
+    <row r="55" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="38">
         <v>110009</v>
       </c>
@@ -7620,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" s="4" customFormat="1" spans="1:24">
+    <row r="56" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="38">
         <v>110010</v>
       </c>
@@ -7673,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="4" customFormat="1" spans="1:25">
+    <row r="57" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="38">
         <v>110011</v>
       </c>
@@ -7729,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="5" customFormat="1" spans="1:24">
+    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="43">
         <v>120000</v>
       </c>
@@ -7785,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="1" spans="1:25">
+    <row r="59" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="43">
         <v>120001</v>
       </c>
@@ -7848,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="6" customFormat="1" spans="1:28">
+    <row r="60" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="43">
         <v>120002</v>
       </c>
@@ -7912,7 +7411,7 @@
         <v>504013</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" spans="1:24">
+    <row r="61" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="43">
         <v>120003</v>
       </c>
@@ -7965,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="7" customFormat="1" spans="1:24">
+    <row r="62" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="43">
         <v>120004</v>
       </c>
@@ -8018,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="5" customFormat="1" spans="1:24">
+    <row r="63" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="43">
         <v>120005</v>
       </c>
@@ -8071,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" s="5" customFormat="1" spans="1:24">
+    <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="43">
         <v>120006</v>
       </c>
@@ -8124,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="5" customFormat="1" spans="1:24">
+    <row r="65" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="43">
         <v>120007</v>
       </c>
@@ -8181,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" s="4" customFormat="1" spans="1:24">
+    <row r="66" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="43">
         <v>120008</v>
       </c>
@@ -8234,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:24">
+    <row r="67" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="43">
         <v>120009</v>
       </c>
@@ -8287,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" s="4" customFormat="1" spans="1:24">
+    <row r="68" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="43">
         <v>120010</v>
       </c>
@@ -8340,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" s="8" customFormat="1" spans="1:24">
+    <row r="69" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="38">
         <v>130000</v>
       </c>
@@ -8395,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" s="8" customFormat="1" spans="1:25">
+    <row r="70" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="38">
         <v>130001</v>
       </c>
@@ -8455,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" s="8" customFormat="1" spans="1:25">
+    <row r="71" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="38">
         <v>130002</v>
       </c>
@@ -8510,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" s="8" customFormat="1" spans="1:24">
+    <row r="72" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="38">
         <v>130003</v>
       </c>
@@ -8565,7 +8064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" s="8" customFormat="1" spans="1:24">
+    <row r="73" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="38">
         <v>130004</v>
       </c>
@@ -8617,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" s="8" customFormat="1" spans="1:25">
+    <row r="74" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
         <v>130005</v>
       </c>
@@ -8675,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" s="8" customFormat="1" spans="1:24">
+    <row r="75" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="38">
         <v>130006</v>
       </c>
@@ -8727,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" s="8" customFormat="1" spans="1:25">
+    <row r="76" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="38">
         <v>130007</v>
       </c>
@@ -8786,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" s="4" customFormat="1" spans="1:24">
+    <row r="77" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="38">
         <v>130008</v>
       </c>
@@ -8839,7 +8338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" s="4" customFormat="1" spans="1:24">
+    <row r="78" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="38">
         <v>130009</v>
       </c>
@@ -8892,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" s="4" customFormat="1" spans="1:24">
+    <row r="79" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="38">
         <v>130010</v>
       </c>
@@ -8945,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" s="4" customFormat="1" spans="1:24">
+    <row r="80" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="38">
         <v>130011</v>
       </c>
@@ -9001,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" s="5" customFormat="1" spans="1:24">
+    <row r="81" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="43">
         <v>140000</v>
       </c>
@@ -9057,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" s="5" customFormat="1" spans="1:26">
+    <row r="82" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="43">
         <v>140001</v>
       </c>
@@ -9123,7 +8622,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="83" s="5" customFormat="1" spans="1:24">
+    <row r="83" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="43">
         <v>140002</v>
       </c>
@@ -9179,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" s="5" customFormat="1" spans="1:25">
+    <row r="84" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="43">
         <v>140003</v>
       </c>
@@ -9235,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" s="5" customFormat="1" spans="1:25">
+    <row r="85" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="43">
         <v>140004</v>
       </c>
@@ -9291,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" s="5" customFormat="1" spans="1:26">
+    <row r="86" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="43">
         <v>140005</v>
       </c>
@@ -9347,7 +8846,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="87" s="5" customFormat="1" spans="1:24">
+    <row r="87" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="43">
         <v>140006</v>
       </c>
@@ -9400,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" s="5" customFormat="1" spans="1:26">
+    <row r="88" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="43">
         <v>140007</v>
       </c>
@@ -9463,7 +8962,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="89" s="4" customFormat="1" spans="1:24">
+    <row r="89" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="43">
         <v>140008</v>
       </c>
@@ -9516,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" s="4" customFormat="1" spans="1:24">
+    <row r="90" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="43">
         <v>140009</v>
       </c>
@@ -9569,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" s="4" customFormat="1" spans="1:24">
+    <row r="91" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="43">
         <v>140010</v>
       </c>
@@ -9622,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" s="8" customFormat="1" spans="1:24">
+    <row r="92" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="38">
         <v>150000</v>
       </c>
@@ -9677,7 +9176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" s="8" customFormat="1" spans="1:25">
+    <row r="93" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="38">
         <v>150001</v>
       </c>
@@ -9740,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" s="8" customFormat="1" spans="1:25">
+    <row r="94" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="38">
         <v>150002</v>
       </c>
@@ -9798,7 +9297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" s="5" customFormat="1" spans="1:24">
+    <row r="95" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="43">
         <v>150003</v>
       </c>
@@ -9854,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" spans="1:25">
+    <row r="96" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="38">
         <v>150004</v>
       </c>
@@ -9909,7 +9408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" s="8" customFormat="1" spans="1:24">
+    <row r="97" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="43">
         <v>150005</v>
       </c>
@@ -9961,7 +9460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" s="8" customFormat="1" spans="1:24">
+    <row r="98" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="38">
         <v>150006</v>
       </c>
@@ -10013,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" s="8" customFormat="1" spans="1:25">
+    <row r="99" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="43">
         <v>150007</v>
       </c>
@@ -10072,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" s="4" customFormat="1" spans="1:24">
+    <row r="100" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="38">
         <v>150008</v>
       </c>
@@ -10125,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" s="4" customFormat="1" spans="1:24">
+    <row r="101" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="43">
         <v>150009</v>
       </c>
@@ -10178,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" s="4" customFormat="1" spans="1:24">
+    <row r="102" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="38">
         <v>150010</v>
       </c>
@@ -10231,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" s="5" customFormat="1" spans="1:24">
+    <row r="103" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="43">
         <v>160000</v>
       </c>
@@ -10287,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" s="5" customFormat="1" spans="1:25">
+    <row r="104" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="43">
         <v>160001</v>
       </c>
@@ -10350,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" s="5" customFormat="1" spans="1:24">
+    <row r="105" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="43">
         <v>160002</v>
       </c>
@@ -10406,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" s="5" customFormat="1" spans="1:24">
+    <row r="106" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="43">
         <v>160003</v>
       </c>
@@ -10459,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" s="5" customFormat="1" spans="1:24">
+    <row r="107" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="43">
         <v>160004</v>
       </c>
@@ -10512,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" s="8" customFormat="1" spans="1:24">
+    <row r="108" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="43">
         <v>160005</v>
       </c>
@@ -10564,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" s="5" customFormat="1" spans="1:24">
+    <row r="109" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="43">
         <v>160006</v>
       </c>
@@ -10617,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="1" spans="1:24">
+    <row r="110" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="43">
         <v>160007</v>
       </c>
@@ -10674,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" s="4" customFormat="1" spans="1:24">
+    <row r="111" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="43">
         <v>160008</v>
       </c>
@@ -10727,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" s="4" customFormat="1" spans="1:24">
+    <row r="112" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="43">
         <v>160009</v>
       </c>
@@ -10780,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" s="4" customFormat="1" spans="1:24">
+    <row r="113" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="43">
         <v>160010</v>
       </c>
@@ -10833,7 +10332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" s="5" customFormat="1" spans="1:24">
+    <row r="114" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="43">
         <v>161000</v>
       </c>
@@ -10889,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" s="4" customFormat="1" spans="1:25">
+    <row r="115" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="43">
         <v>161001</v>
       </c>
@@ -10949,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:24">
+    <row r="116" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="43">
         <v>161002</v>
       </c>
@@ -11002,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" s="4" customFormat="1" spans="1:25">
+    <row r="117" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="43">
         <v>161003</v>
       </c>
@@ -11058,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" s="4" customFormat="1" spans="1:24">
+    <row r="118" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="43">
         <v>161004</v>
       </c>
@@ -11111,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" spans="1:24">
+    <row r="119" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="43">
         <v>161005</v>
       </c>
@@ -11164,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" s="4" customFormat="1" spans="1:24">
+    <row r="120" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="43">
         <v>161006</v>
       </c>
@@ -11217,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" s="4" customFormat="1" spans="1:25">
+    <row r="121" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="43">
         <v>161007</v>
       </c>
@@ -11276,7 +10775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" s="4" customFormat="1" spans="1:24">
+    <row r="122" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="43">
         <v>161008</v>
       </c>
@@ -11329,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:24">
+    <row r="123" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="43">
         <v>161009</v>
       </c>
@@ -11382,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="1" spans="1:24">
+    <row r="124" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="43">
         <v>161010</v>
       </c>
@@ -11435,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" s="4" customFormat="1" spans="1:24">
+    <row r="125" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="83">
         <v>161011</v>
       </c>
@@ -11488,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" s="4" customFormat="1" spans="1:24">
+    <row r="126" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="83">
         <v>161012</v>
       </c>
@@ -11541,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" s="4" customFormat="1" spans="1:24">
+    <row r="127" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="83">
         <v>161013</v>
       </c>
@@ -11594,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" s="4" customFormat="1" spans="1:24">
+    <row r="128" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="83">
         <v>161014</v>
       </c>
@@ -11647,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" s="5" customFormat="1" spans="1:24">
+    <row r="129" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="43">
         <v>162000</v>
       </c>
@@ -11703,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" s="4" customFormat="1" spans="1:25">
+    <row r="130" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="43">
         <v>162001</v>
       </c>
@@ -11764,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" s="4" customFormat="1" spans="1:25">
+    <row r="131" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="43">
         <v>162002</v>
       </c>
@@ -11820,7 +11319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" s="4" customFormat="1" spans="1:25">
+    <row r="132" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="43">
         <v>162003</v>
       </c>
@@ -11879,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" s="4" customFormat="1" spans="1:28">
+    <row r="133" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="43">
         <v>162004</v>
       </c>
@@ -11935,7 +11434,7 @@
         <v>506201</v>
       </c>
     </row>
-    <row r="134" s="4" customFormat="1" spans="1:25">
+    <row r="134" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="43">
         <v>162005</v>
       </c>
@@ -11991,7 +11490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" s="4" customFormat="1" spans="1:24">
+    <row r="135" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="43">
         <v>162006</v>
       </c>
@@ -12044,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" s="4" customFormat="1" spans="1:25">
+    <row r="136" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="43">
         <v>162007</v>
       </c>
@@ -12103,7 +11602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" s="4" customFormat="1" spans="1:24">
+    <row r="137" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="43">
         <v>162008</v>
       </c>
@@ -12156,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" s="4" customFormat="1" spans="1:24">
+    <row r="138" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="43">
         <v>162009</v>
       </c>
@@ -12209,7 +11708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" s="4" customFormat="1" spans="1:24">
+    <row r="139" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="43">
         <v>162010</v>
       </c>
@@ -12262,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" s="5" customFormat="1" spans="1:24">
+    <row r="140" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="43">
         <v>163000</v>
       </c>
@@ -12318,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" s="4" customFormat="1" spans="1:25">
+    <row r="141" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="43">
         <v>163001</v>
       </c>
@@ -12378,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" s="4" customFormat="1" spans="1:24">
+    <row r="142" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="43">
         <v>163002</v>
       </c>
@@ -12431,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" s="4" customFormat="1" spans="1:25">
+    <row r="143" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="43">
         <v>163003</v>
       </c>
@@ -12487,7 +11986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" s="4" customFormat="1" spans="1:24">
+    <row r="144" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="43">
         <v>163004</v>
       </c>
@@ -12540,7 +12039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" s="4" customFormat="1" spans="1:24">
+    <row r="145" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="43">
         <v>163005</v>
       </c>
@@ -12593,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" s="4" customFormat="1" spans="1:24">
+    <row r="146" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="43">
         <v>163006</v>
       </c>
@@ -12646,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" s="4" customFormat="1" spans="1:25">
+    <row r="147" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="43">
         <v>163007</v>
       </c>
@@ -12705,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" s="4" customFormat="1" spans="1:24">
+    <row r="148" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="43">
         <v>163008</v>
       </c>
@@ -12758,7 +12257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" s="4" customFormat="1" spans="1:24">
+    <row r="149" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="43">
         <v>163009</v>
       </c>
@@ -12811,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" s="4" customFormat="1" spans="1:24">
+    <row r="150" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="43">
         <v>163010</v>
       </c>
@@ -12864,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" s="5" customFormat="1" spans="1:24">
+    <row r="151" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="43">
         <v>164000</v>
       </c>
@@ -12920,7 +12419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" s="4" customFormat="1" spans="1:25">
+    <row r="152" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="43">
         <v>164001</v>
       </c>
@@ -12979,7 +12478,7 @@
       </c>
       <c r="Y152" s="5"/>
     </row>
-    <row r="153" s="4" customFormat="1" spans="1:25">
+    <row r="153" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="43">
         <v>164002</v>
       </c>
@@ -13033,7 +12532,7 @@
       </c>
       <c r="Y153" s="5"/>
     </row>
-    <row r="154" s="4" customFormat="1" spans="1:25">
+    <row r="154" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="43">
         <v>164003</v>
       </c>
@@ -13090,7 +12589,7 @@
       </c>
       <c r="Y154" s="5"/>
     </row>
-    <row r="155" s="4" customFormat="1" spans="1:28">
+    <row r="155" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="43">
         <v>164004</v>
       </c>
@@ -13145,7 +12644,7 @@
       <c r="Y155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" s="4" customFormat="1" spans="1:25">
+    <row r="156" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="43">
         <v>164005</v>
       </c>
@@ -13199,7 +12698,7 @@
       </c>
       <c r="Y156" s="5"/>
     </row>
-    <row r="157" s="4" customFormat="1" spans="1:25">
+    <row r="157" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="43">
         <v>164006</v>
       </c>
@@ -13253,7 +12752,7 @@
       </c>
       <c r="Y157" s="5"/>
     </row>
-    <row r="158" s="4" customFormat="1" spans="1:25">
+    <row r="158" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="43">
         <v>164007</v>
       </c>
@@ -13310,7 +12809,7 @@
       </c>
       <c r="Y158" s="5"/>
     </row>
-    <row r="159" s="4" customFormat="1" spans="1:25">
+    <row r="159" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="43">
         <v>164008</v>
       </c>
@@ -13364,7 +12863,7 @@
       </c>
       <c r="Y159" s="5"/>
     </row>
-    <row r="160" s="4" customFormat="1" spans="1:25">
+    <row r="160" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="43">
         <v>164009</v>
       </c>
@@ -13418,7 +12917,7 @@
       </c>
       <c r="Y160" s="5"/>
     </row>
-    <row r="161" s="4" customFormat="1" spans="1:25">
+    <row r="161" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="43">
         <v>164010</v>
       </c>
@@ -13472,7 +12971,7 @@
       </c>
       <c r="Y161" s="5"/>
     </row>
-    <row r="162" s="5" customFormat="1" spans="1:24">
+    <row r="162" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="43">
         <v>165000</v>
       </c>
@@ -13528,7 +13027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" s="4" customFormat="1" spans="1:28">
+    <row r="163" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="43">
         <v>165001</v>
       </c>
@@ -13588,7 +13087,7 @@
       <c r="Y163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" s="4" customFormat="1" spans="1:25">
+    <row r="164" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="43">
         <v>165002</v>
       </c>
@@ -13642,7 +13141,7 @@
       </c>
       <c r="Y164" s="5"/>
     </row>
-    <row r="165" s="4" customFormat="1" spans="1:25">
+    <row r="165" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="43">
         <v>165003</v>
       </c>
@@ -13699,7 +13198,7 @@
       </c>
       <c r="Y165" s="5"/>
     </row>
-    <row r="166" s="4" customFormat="1" spans="1:28">
+    <row r="166" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="43">
         <v>165004</v>
       </c>
@@ -13754,7 +13253,7 @@
       <c r="Y166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" s="4" customFormat="1" spans="1:25">
+    <row r="167" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="43">
         <v>165005</v>
       </c>
@@ -13808,7 +13307,7 @@
       </c>
       <c r="Y167" s="5"/>
     </row>
-    <row r="168" s="4" customFormat="1" spans="1:25">
+    <row r="168" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="43">
         <v>165006</v>
       </c>
@@ -13862,7 +13361,7 @@
       </c>
       <c r="Y168" s="5"/>
     </row>
-    <row r="169" s="4" customFormat="1" spans="1:25">
+    <row r="169" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="43">
         <v>165007</v>
       </c>
@@ -13919,7 +13418,7 @@
       </c>
       <c r="Y169" s="5"/>
     </row>
-    <row r="170" s="4" customFormat="1" spans="1:25">
+    <row r="170" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="43">
         <v>165008</v>
       </c>
@@ -13973,7 +13472,7 @@
       </c>
       <c r="Y170" s="5"/>
     </row>
-    <row r="171" s="4" customFormat="1" spans="1:25">
+    <row r="171" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="43">
         <v>165009</v>
       </c>
@@ -14027,7 +13526,7 @@
       </c>
       <c r="Y171" s="5"/>
     </row>
-    <row r="172" s="4" customFormat="1" spans="1:25">
+    <row r="172" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="43">
         <v>165010</v>
       </c>
@@ -14081,7 +13580,7 @@
       </c>
       <c r="Y172" s="5"/>
     </row>
-    <row r="173" s="5" customFormat="1" spans="1:24">
+    <row r="173" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="43">
         <v>166000</v>
       </c>
@@ -14137,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" s="4" customFormat="1" spans="1:25">
+    <row r="174" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="43">
         <v>166001</v>
       </c>
@@ -14196,7 +13695,7 @@
       </c>
       <c r="Y174" s="5"/>
     </row>
-    <row r="175" s="4" customFormat="1" spans="1:25">
+    <row r="175" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="43">
         <v>166002</v>
       </c>
@@ -14250,7 +13749,7 @@
       </c>
       <c r="Y175" s="5"/>
     </row>
-    <row r="176" s="4" customFormat="1" spans="1:25">
+    <row r="176" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="43">
         <v>166003</v>
       </c>
@@ -14307,7 +13806,7 @@
       </c>
       <c r="Y176" s="5"/>
     </row>
-    <row r="177" s="4" customFormat="1" spans="1:28">
+    <row r="177" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="43">
         <v>166004</v>
       </c>
@@ -14362,7 +13861,7 @@
       <c r="Y177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" s="4" customFormat="1" spans="1:25">
+    <row r="178" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="43">
         <v>166005</v>
       </c>
@@ -14416,7 +13915,7 @@
       </c>
       <c r="Y178" s="5"/>
     </row>
-    <row r="179" s="4" customFormat="1" spans="1:25">
+    <row r="179" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="43">
         <v>166006</v>
       </c>
@@ -14470,7 +13969,7 @@
       </c>
       <c r="Y179" s="5"/>
     </row>
-    <row r="180" s="4" customFormat="1" spans="1:25">
+    <row r="180" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="43">
         <v>166007</v>
       </c>
@@ -14527,7 +14026,7 @@
       </c>
       <c r="Y180" s="5"/>
     </row>
-    <row r="181" s="4" customFormat="1" spans="1:24">
+    <row r="181" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="43">
         <v>166008</v>
       </c>
@@ -14580,7 +14079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" spans="1:24">
+    <row r="182" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="43">
         <v>166009</v>
       </c>
@@ -14633,7 +14132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" s="4" customFormat="1" spans="1:24">
+    <row r="183" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="43">
         <v>166010</v>
       </c>
@@ -14686,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" s="5" customFormat="1" spans="1:24">
+    <row r="184" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="43">
         <v>167000</v>
       </c>
@@ -14742,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" s="4" customFormat="1" spans="1:25">
+    <row r="185" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="43">
         <v>167001</v>
       </c>
@@ -14804,7 +14303,7 @@
       </c>
       <c r="Y185" s="5"/>
     </row>
-    <row r="186" s="4" customFormat="1" spans="1:25">
+    <row r="186" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="43">
         <v>167002</v>
       </c>
@@ -14858,7 +14357,7 @@
       </c>
       <c r="Y186" s="5"/>
     </row>
-    <row r="187" s="4" customFormat="1" spans="1:25">
+    <row r="187" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="43">
         <v>167003</v>
       </c>
@@ -14915,7 +14414,7 @@
       </c>
       <c r="Y187" s="5"/>
     </row>
-    <row r="188" s="4" customFormat="1" spans="1:28">
+    <row r="188" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="43">
         <v>167004</v>
       </c>
@@ -14970,7 +14469,7 @@
       <c r="Y188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" s="4" customFormat="1" spans="1:25">
+    <row r="189" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="43">
         <v>167005</v>
       </c>
@@ -15024,7 +14523,7 @@
       </c>
       <c r="Y189" s="5"/>
     </row>
-    <row r="190" s="4" customFormat="1" spans="1:25">
+    <row r="190" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="43">
         <v>167006</v>
       </c>
@@ -15078,7 +14577,7 @@
       </c>
       <c r="Y190" s="5"/>
     </row>
-    <row r="191" s="4" customFormat="1" spans="1:25">
+    <row r="191" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="43">
         <v>167007</v>
       </c>
@@ -15135,7 +14634,7 @@
       </c>
       <c r="Y191" s="5"/>
     </row>
-    <row r="192" s="4" customFormat="1" spans="1:24">
+    <row r="192" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="43">
         <v>167008</v>
       </c>
@@ -15188,7 +14687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" s="4" customFormat="1" spans="1:24">
+    <row r="193" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="43">
         <v>167009</v>
       </c>
@@ -15241,7 +14740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" s="4" customFormat="1" spans="1:24">
+    <row r="194" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="43">
         <v>167010</v>
       </c>
@@ -15294,7 +14793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" s="5" customFormat="1" spans="1:24">
+    <row r="195" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="43">
         <v>168000</v>
       </c>
@@ -15350,7 +14849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" s="4" customFormat="1" spans="1:25">
+    <row r="196" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="43">
         <v>168001</v>
       </c>
@@ -15409,7 +14908,7 @@
       </c>
       <c r="Y196" s="5"/>
     </row>
-    <row r="197" s="4" customFormat="1" spans="1:25">
+    <row r="197" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="43">
         <v>168002</v>
       </c>
@@ -15463,7 +14962,7 @@
       </c>
       <c r="Y197" s="5"/>
     </row>
-    <row r="198" s="4" customFormat="1" spans="1:25">
+    <row r="198" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="43">
         <v>168003</v>
       </c>
@@ -15523,7 +15022,7 @@
       </c>
       <c r="Y198" s="5"/>
     </row>
-    <row r="199" s="4" customFormat="1" spans="1:28">
+    <row r="199" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="43">
         <v>168004</v>
       </c>
@@ -15581,7 +15080,7 @@
       <c r="Y199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" s="4" customFormat="1" spans="1:25">
+    <row r="200" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="43">
         <v>168005</v>
       </c>
@@ -15638,7 +15137,7 @@
       </c>
       <c r="Y200" s="5"/>
     </row>
-    <row r="201" s="4" customFormat="1" spans="1:25">
+    <row r="201" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="43">
         <v>168006</v>
       </c>
@@ -15692,7 +15191,7 @@
       </c>
       <c r="Y201" s="5"/>
     </row>
-    <row r="202" s="4" customFormat="1" spans="1:25">
+    <row r="202" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="43">
         <v>168007</v>
       </c>
@@ -15749,7 +15248,7 @@
       </c>
       <c r="Y202" s="5"/>
     </row>
-    <row r="203" s="4" customFormat="1" spans="1:24">
+    <row r="203" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="43">
         <v>168008</v>
       </c>
@@ -15802,7 +15301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" s="4" customFormat="1" spans="1:24">
+    <row r="204" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="43">
         <v>168009</v>
       </c>
@@ -15855,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" s="4" customFormat="1" spans="1:24">
+    <row r="205" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="43">
         <v>168010</v>
       </c>
@@ -15908,7 +15407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" s="5" customFormat="1" spans="1:24">
+    <row r="206" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="43">
         <v>169000</v>
       </c>
@@ -15964,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" s="4" customFormat="1" spans="1:25">
+    <row r="207" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="43">
         <v>169001</v>
       </c>
@@ -16023,7 +15522,7 @@
       </c>
       <c r="Y207" s="5"/>
     </row>
-    <row r="208" s="4" customFormat="1" spans="1:25">
+    <row r="208" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="43">
         <v>169002</v>
       </c>
@@ -16077,7 +15576,7 @@
       </c>
       <c r="Y208" s="5"/>
     </row>
-    <row r="209" s="4" customFormat="1" spans="1:25">
+    <row r="209" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="43">
         <v>169003</v>
       </c>
@@ -16134,7 +15633,7 @@
       </c>
       <c r="Y209" s="5"/>
     </row>
-    <row r="210" s="4" customFormat="1" spans="1:28">
+    <row r="210" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="43">
         <v>169004</v>
       </c>
@@ -16189,7 +15688,7 @@
       <c r="Y210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" s="4" customFormat="1" spans="1:25">
+    <row r="211" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="43">
         <v>169005</v>
       </c>
@@ -16243,7 +15742,7 @@
       </c>
       <c r="Y211" s="5"/>
     </row>
-    <row r="212" s="4" customFormat="1" spans="1:25">
+    <row r="212" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="43">
         <v>169006</v>
       </c>
@@ -16297,7 +15796,7 @@
       </c>
       <c r="Y212" s="5"/>
     </row>
-    <row r="213" s="4" customFormat="1" spans="1:25">
+    <row r="213" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="43">
         <v>169007</v>
       </c>
@@ -16354,7 +15853,7 @@
       </c>
       <c r="Y213" s="5"/>
     </row>
-    <row r="214" s="4" customFormat="1" spans="1:24">
+    <row r="214" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="43">
         <v>169008</v>
       </c>
@@ -16407,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" s="4" customFormat="1" spans="1:24">
+    <row r="215" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="43">
         <v>169009</v>
       </c>
@@ -16460,7 +15959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" s="4" customFormat="1" spans="1:24">
+    <row r="216" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="43">
         <v>169010</v>
       </c>
@@ -16513,7 +16012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" s="9" customFormat="1" spans="1:25">
+    <row r="217" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="91">
         <v>171006</v>
       </c>
@@ -16568,7 +16067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" s="10" customFormat="1" spans="1:24">
+    <row r="218" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="97">
         <v>172006</v>
       </c>
@@ -16622,7 +16121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" s="11" customFormat="1" spans="1:25">
+    <row r="219" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="91">
         <v>173006</v>
       </c>
@@ -16677,7 +16176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" s="10" customFormat="1" spans="1:25">
+    <row r="220" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="97">
         <v>174006</v>
       </c>
@@ -16734,7 +16233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" s="11" customFormat="1" spans="1:25">
+    <row r="221" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="91">
         <v>175006</v>
       </c>
@@ -16790,7 +16289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" s="10" customFormat="1" spans="1:24">
+    <row r="222" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="97">
         <v>176006</v>
       </c>
@@ -16844,7 +16343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" s="4" customFormat="1" spans="1:25">
+    <row r="223" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="43">
         <v>177006</v>
       </c>
@@ -16898,7 +16397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" s="4" customFormat="1" spans="1:25">
+    <row r="224" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="43">
         <v>178006</v>
       </c>
@@ -16952,7 +16451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" s="4" customFormat="1" spans="1:25">
+    <row r="225" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="43">
         <v>179006</v>
       </c>
@@ -17006,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" s="4" customFormat="1" spans="1:25">
+    <row r="226" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="43">
         <v>181006</v>
       </c>
@@ -17060,7 +16559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" s="4" customFormat="1" spans="1:25">
+    <row r="227" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="43">
         <v>185006</v>
       </c>
@@ -17114,7 +16613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" s="4" customFormat="1" spans="1:25">
+    <row r="228" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="43">
         <v>184006</v>
       </c>
@@ -17168,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" s="4" customFormat="1" spans="1:25">
+    <row r="229" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="43">
         <v>186006</v>
       </c>
@@ -17222,7 +16721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" s="4" customFormat="1" spans="1:25">
+    <row r="230" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="43">
         <v>187006</v>
       </c>
@@ -17276,7 +16775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" s="4" customFormat="1" spans="1:25">
+    <row r="231" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="43">
         <v>188006</v>
       </c>
@@ -17330,7 +16829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" s="11" customFormat="1" spans="1:25">
+    <row r="232" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A232" s="91">
         <v>180000</v>
       </c>
@@ -17385,7 +16884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" s="9" customFormat="1" spans="1:25">
+    <row r="233" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A233" s="91">
         <v>180001</v>
       </c>
@@ -17445,7 +16944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" s="12" customFormat="1" spans="1:25">
+    <row r="234" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A234" s="101">
         <v>180002</v>
       </c>
@@ -17499,7 +16998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" s="12" customFormat="1" spans="1:25">
+    <row r="235" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="101">
         <v>180003</v>
       </c>
@@ -17552,7 +17051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" s="12" customFormat="1" spans="1:25">
+    <row r="236" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="101">
         <v>180004</v>
       </c>
@@ -17609,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" s="9" customFormat="1" spans="1:25">
+    <row r="237" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="91">
         <v>180005</v>
       </c>
@@ -17670,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" s="10" customFormat="1" spans="1:25">
+    <row r="238" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A238" s="91">
         <v>180006</v>
       </c>
@@ -17728,7 +17227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" s="11" customFormat="1" spans="1:25">
+    <row r="239" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A239" s="91">
         <v>180007</v>
       </c>
@@ -17785,7 +17284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" s="10" customFormat="1" spans="1:25">
+    <row r="240" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A240" s="91">
         <v>180008</v>
       </c>
@@ -17843,7 +17342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" s="11" customFormat="1" spans="1:25">
+    <row r="241" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A241" s="91">
         <v>180009</v>
       </c>
@@ -17900,7 +17399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" s="10" customFormat="1" spans="1:25">
+    <row r="242" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="91">
         <v>180010</v>
       </c>
@@ -17958,7 +17457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" s="10" customFormat="1" spans="1:24">
+    <row r="243" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A243" s="91">
         <v>180011</v>
       </c>
@@ -18012,7 +17511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" s="12" customFormat="1" spans="1:25">
+    <row r="244" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A244" s="105">
         <v>180012</v>
       </c>
@@ -18066,7 +17565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" s="12" customFormat="1" spans="1:25">
+    <row r="245" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="105">
         <v>180013</v>
       </c>
@@ -18123,7 +17622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" s="12" customFormat="1" spans="1:25">
+    <row r="246" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="105">
         <v>180014</v>
       </c>
@@ -18177,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" s="12" customFormat="1" spans="1:25">
+    <row r="247" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A247" s="105">
         <v>180015</v>
       </c>
@@ -18234,7 +17733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" s="12" customFormat="1" spans="1:24">
+    <row r="248" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A248" s="105">
         <v>180016</v>
       </c>
@@ -18285,7 +17784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" s="12" customFormat="1" spans="1:24">
+    <row r="249" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A249" s="105">
         <v>180017</v>
       </c>
@@ -18336,7 +17835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" s="12" customFormat="1" spans="1:24">
+    <row r="250" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A250" s="105">
         <v>180018</v>
       </c>
@@ -18390,7 +17889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A251" s="111">
         <v>900001</v>
       </c>
@@ -18440,7 +17939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A252" s="111">
         <v>900002</v>
       </c>
@@ -18490,7 +17989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A253" s="111">
         <v>900003</v>
       </c>
@@ -18540,7 +18039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A254" s="111">
         <v>900004</v>
       </c>
@@ -18590,7 +18089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A255" s="105">
         <v>180019</v>
       </c>
@@ -18640,7 +18139,7 @@
       </c>
       <c r="Y255" s="131"/>
     </row>
-    <row r="256" spans="1:25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A256" s="105">
         <v>180020</v>
       </c>
@@ -18689,7 +18188,7 @@
       </c>
       <c r="Y256" s="131"/>
     </row>
-    <row r="257" spans="1:25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A257" s="105">
         <v>180021</v>
       </c>
@@ -18739,7 +18238,7 @@
       </c>
       <c r="Y257" s="131"/>
     </row>
-    <row r="258" spans="1:25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A258" s="105">
         <v>180022</v>
       </c>
@@ -18791,7 +18290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A259" s="105">
         <v>180023</v>
       </c>
@@ -18843,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A260" s="105">
         <v>180024</v>
       </c>
@@ -18895,7 +18394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:24">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A261" s="105">
         <v>181001</v>
       </c>
@@ -18950,7 +18449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:24">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A262" s="105">
         <v>181002</v>
       </c>
@@ -18999,7 +18498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A263" s="105">
         <v>180025</v>
       </c>
@@ -19058,7 +18557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" s="11" customFormat="1" spans="1:25">
+    <row r="264" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A264" s="91">
         <v>180030</v>
       </c>
@@ -19113,7 +18612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A265" s="105">
         <v>180031</v>
       </c>
@@ -19172,7 +18671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:24">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A266" s="17">
         <v>190000</v>
       </c>
@@ -19222,7 +18721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:24">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A267" s="17">
         <v>190001</v>
       </c>
@@ -19276,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>182000</v>
       </c>
@@ -19326,7 +18825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:24">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>182001</v>
       </c>
@@ -19376,7 +18875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:24">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>182002</v>
       </c>
@@ -19426,7 +18925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>182003</v>
       </c>
@@ -19476,7 +18975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:24">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>182004</v>
       </c>
@@ -19526,7 +19025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:24">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>182005</v>
       </c>
@@ -19576,7 +19075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:24">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>182010</v>
       </c>
@@ -19625,7 +19124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:24">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A275" s="17">
         <v>182011</v>
       </c>
@@ -19674,7 +19173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:24">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>182012</v>
       </c>
@@ -19723,7 +19222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:24">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A277" s="17">
         <v>182013</v>
       </c>
@@ -19772,7 +19271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" s="13" customFormat="1" spans="1:24">
+    <row r="278" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A278" s="134">
         <v>183000</v>
       </c>
@@ -19825,7 +19324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" s="14" customFormat="1" spans="1:25">
+    <row r="279" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A279" s="136">
         <v>183001</v>
       </c>
@@ -19883,7 +19382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" s="14" customFormat="1" spans="1:26">
+    <row r="280" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A280" s="136">
         <v>183002</v>
       </c>
@@ -19944,7 +19443,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="281" s="14" customFormat="1" spans="1:24">
+    <row r="281" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A281" s="136">
         <v>183003</v>
       </c>
@@ -19997,7 +19496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" s="14" customFormat="1" spans="1:24">
+    <row r="282" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A282" s="139">
         <v>183004</v>
       </c>
@@ -20050,7 +19549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" s="14" customFormat="1" spans="1:24">
+    <row r="283" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="136">
         <v>183005</v>
       </c>
@@ -20105,7 +19604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" s="14" customFormat="1" spans="1:24">
+    <row r="284" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A284" s="139">
         <v>183006</v>
       </c>
@@ -20158,7 +19657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" s="14" customFormat="1" spans="1:24">
+    <row r="285" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A285" s="136">
         <v>183007</v>
       </c>
@@ -20211,7 +19710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" s="14" customFormat="1" spans="1:25">
+    <row r="286" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="139">
         <v>183008</v>
       </c>
@@ -20267,7 +19766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" s="14" customFormat="1" spans="1:25">
+    <row r="287" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A287" s="136">
         <v>183009</v>
       </c>
@@ -20323,7 +19822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" s="15" customFormat="1" spans="1:25">
+    <row r="288" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A288" s="140">
         <v>183010</v>
       </c>
@@ -20383,7 +19882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" s="16" customFormat="1" spans="1:26">
+    <row r="289" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="140">
         <v>183011</v>
       </c>
@@ -20446,7 +19945,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="290" s="10" customFormat="1" spans="1:24">
+    <row r="290" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A290" s="140">
         <v>183012</v>
       </c>
@@ -20500,7 +19999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" s="5" customFormat="1" spans="1:24">
+    <row r="291" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A291" s="140">
         <v>183013</v>
       </c>
@@ -20551,7 +20050,7 @@
       </c>
       <c r="X291" s="42"/>
     </row>
-    <row r="292" s="8" customFormat="1" spans="1:24">
+    <row r="292" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A292" s="144">
         <v>191000</v>
       </c>
@@ -20606,7 +20105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" s="8" customFormat="1" spans="1:25">
+    <row r="293" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A293" s="38">
         <v>191001</v>
       </c>
@@ -20666,7 +20165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" s="8" customFormat="1" spans="1:25">
+    <row r="294" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A294" s="38">
         <v>191002</v>
       </c>
@@ -20721,7 +20220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" s="8" customFormat="1" spans="1:24">
+    <row r="295" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A295" s="38">
         <v>191003</v>
       </c>
@@ -20776,7 +20275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" s="8" customFormat="1" spans="1:24">
+    <row r="296" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A296" s="38">
         <v>191004</v>
       </c>
@@ -20828,7 +20327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" s="8" customFormat="1" spans="1:25">
+    <row r="297" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A297" s="38">
         <v>191005</v>
       </c>
@@ -20886,7 +20385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" s="8" customFormat="1" spans="1:25">
+    <row r="298" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A298" s="38">
         <v>191007</v>
       </c>
@@ -20945,7 +20444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" s="4" customFormat="1" spans="1:25">
+    <row r="299" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A299" s="38">
         <v>200020</v>
       </c>
@@ -21008,43 +20507,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <autoFilter ref="A1:AB299" xr:uid="{39B38B2A-FCAE-4B1F-955F-2427237EE533}"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>